--- a/07-Other/Test Cases.xlsx
+++ b/07-Other/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\POO Gabriel Vivanco\Project\OOPSW14575-BIT_CODERZ\07-Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OOPSW14575-BIT_CODERZ\07-Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9176706E-BC4A-4B20-B63E-15CABC8842EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F824C6B-59D1-445B-80B7-0AE3C4BD9616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Organivent Test Cases</t>
   </si>
@@ -159,7 +159,49 @@
     <t xml:space="preserve">Write , insteado of . </t>
   </si>
   <si>
-    <t>1,7,0</t>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>Enter letters in fields that require integers.</t>
+  </si>
+  <si>
+    <t>Enter 00 in the minutes in the event schedule.</t>
+  </si>
+  <si>
+    <t>Make sure that the end time of the event is before the start time.</t>
+  </si>
+  <si>
+    <t>Do not enter letters in the ID field.</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>2022-2021</t>
+  </si>
+  <si>
+    <t>asds</t>
+  </si>
+  <si>
+    <t>There should be no error, and it has to ask again.</t>
+  </si>
+  <si>
+    <t>There is no error, and it asks again.</t>
+  </si>
+  <si>
+    <t>Allows there to be zero minutes in that field.</t>
+  </si>
+  <si>
+    <t>Did not allow passing the field.</t>
+  </si>
+  <si>
+    <t>Do not allow setting end dates earlier than the start dates.</t>
+  </si>
+  <si>
+    <t>Did not allow setting end dates earlier than the start dates.</t>
+  </si>
+  <si>
+    <t>There was an error, and it hung up.</t>
   </si>
 </sst>
 </file>
@@ -216,26 +258,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,38 +589,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D4201-88FE-4E7E-83C3-83BEB9406E91}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -601,7 +640,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -618,7 +657,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -635,7 +674,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -652,7 +691,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -669,7 +708,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -686,7 +725,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -703,7 +742,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -720,69 +759,137 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>5.6</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/07-Other/Test Cases.xlsx
+++ b/07-Other/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OOPSW14575-BIT_CODERZ\07-Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F824C6B-59D1-445B-80B7-0AE3C4BD9616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB90CC5-C202-4513-B798-E182F1C2F00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>Organivent Test Cases</t>
   </si>
@@ -202,6 +202,60 @@
   </si>
   <si>
     <t>There was an error, and it hung up.</t>
+  </si>
+  <si>
+    <t>Display the receipt for an event.</t>
+  </si>
+  <si>
+    <t>Display a receipt without errors and entered data.</t>
+  </si>
+  <si>
+    <t>Display the receipt with the correct data.</t>
+  </si>
+  <si>
+    <t>Create an event without errors.</t>
+  </si>
+  <si>
+    <t>Create the event with the title, artist, and other details.</t>
+  </si>
+  <si>
+    <t>Successfully create the event.</t>
+  </si>
+  <si>
+    <t>Record the fine and add it to the event cost.</t>
+  </si>
+  <si>
+    <t>Register the fine and add it to the event cost.</t>
+  </si>
+  <si>
+    <t>Successfully record and add the fine.</t>
+  </si>
+  <si>
+    <t>Save data correctly and without errors in JSON files.</t>
+  </si>
+  <si>
+    <t>Enter data and save it without any issues.</t>
+  </si>
+  <si>
+    <t>Successfully save the data.</t>
+  </si>
+  <si>
+    <t>Calculate an Approximate Cost with Event Data</t>
+  </si>
+  <si>
+    <t>Calculate the approximate cost accurately with the entered event data.</t>
+  </si>
+  <si>
+    <t>Successfully calculate the approximate cost without errors based on the entered data.</t>
+  </si>
+  <si>
+    <t>Add IVA to Artist and Venue Costs</t>
+  </si>
+  <si>
+    <t>Calculate the total cost correctly, including VAT, for artists and the venue.</t>
+  </si>
+  <si>
+    <t>Accurately calculate the VAT without errors and add it to the costs.</t>
   </si>
 </sst>
 </file>
@@ -589,17 +643,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D4201-88FE-4E7E-83C3-83BEB9406E91}">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -837,7 +891,7 @@
       <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -854,7 +908,7 @@
       <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -871,7 +925,7 @@
       <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -888,8 +942,98 @@
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/07-Other/Test Cases.xlsx
+++ b/07-Other/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OOPSW14575-BIT_CODERZ\07-Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB90CC5-C202-4513-B798-E182F1C2F00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561469DC-D059-4171-9BA7-32945FC2B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>Organivent Test Cases</t>
   </si>
@@ -256,6 +256,90 @@
   </si>
   <si>
     <t>Accurately calculate the VAT without errors and add it to the costs.</t>
+  </si>
+  <si>
+    <t>1.12.1</t>
+  </si>
+  <si>
+    <t>Show all the current artist</t>
+  </si>
+  <si>
+    <t>All artist id's should be cero but the rest of the information will preserve</t>
+  </si>
+  <si>
+    <t>Only the "name" field is read, hiring cost always show 0</t>
+  </si>
+  <si>
+    <t>Show all the current employees</t>
+  </si>
+  <si>
+    <t>All the information should be displayed correctly</t>
+  </si>
+  <si>
+    <t>the "hourlyWage" field is nor read correctly, returning always 0</t>
+  </si>
+  <si>
+    <t>Insert a price value when it is asked</t>
+  </si>
+  <si>
+    <t>Get an error message because there couldn't be negative prices</t>
+  </si>
+  <si>
+    <t>The program ask again to insert a valid price value</t>
+  </si>
+  <si>
+    <t>succes</t>
+  </si>
+  <si>
+    <t>Don't allow the user to enter blank spaces in an object field</t>
+  </si>
+  <si>
+    <t>The program ask again to insert a non blank space</t>
+  </si>
+  <si>
+    <t>smn.com</t>
+  </si>
+  <si>
+    <t>The program should at least recognize an @ for a valid email</t>
+  </si>
+  <si>
+    <t>The program show an invalid email message</t>
+  </si>
+  <si>
+    <t>Pedro12</t>
+  </si>
+  <si>
+    <t>Insert any string value when is asked</t>
+  </si>
+  <si>
+    <t>Insert an email</t>
+  </si>
+  <si>
+    <t>Insert a real name</t>
+  </si>
+  <si>
+    <t>It should recognize that a real name doesn't have numbers</t>
+  </si>
+  <si>
+    <t>It is asked again to insert a real name (without numbers)</t>
+  </si>
+  <si>
+    <t>Pd!ro% __#al</t>
+  </si>
+  <si>
+    <t>It should recognize that a real name doesn't have special characters</t>
+  </si>
+  <si>
+    <t>The program continues anyways</t>
+  </si>
+  <si>
+    <t>Login as an administrator by its user name</t>
+  </si>
+  <si>
+    <t>Return to the main menu if there are too many attempts</t>
+  </si>
+  <si>
+    <t>Keeps asking again and again until the user name is matched</t>
   </si>
 </sst>
 </file>
@@ -643,20 +727,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D4201-88FE-4E7E-83C3-83BEB9406E91}">
-  <dimension ref="B2:G27"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" customWidth="1"/>
     <col min="4" max="4" width="66" customWidth="1"/>
     <col min="5" max="5" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -666,7 +750,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -676,7 +760,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -693,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -710,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
@@ -727,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
@@ -744,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -761,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -778,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -795,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -812,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -829,7 +913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -844,7 +928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -861,7 +945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>5.6</v>
       </c>
@@ -878,7 +962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -895,7 +979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -912,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -929,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
@@ -946,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>59</v>
@@ -957,11 +1041,11 @@
       <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>62</v>
@@ -972,11 +1056,11 @@
       <c r="E23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>65</v>
@@ -987,11 +1071,11 @@
       <c r="E24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -1002,11 +1086,11 @@
       <c r="E25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>71</v>
@@ -1017,11 +1101,11 @@
       <c r="E26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>74</v>
@@ -1032,8 +1116,161 @@
       <c r="E27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/07-Other/Test Cases.xlsx
+++ b/07-Other/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\POO Gabriel Vivanco\Project\OOPSW14575-BIT_CODERZ\07-Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561469DC-D059-4171-9BA7-32945FC2B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30A4B5-2DF1-4091-AD21-7E9BB5D97BE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{352396B9-773B-4464-A71E-AD9E4A9D11AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>Organivent Test Cases</t>
   </si>
@@ -340,6 +340,21 @@
   </si>
   <si>
     <t>Keeps asking again and again until the user name is matched</t>
+  </si>
+  <si>
+    <t>1.12.3</t>
+  </si>
+  <si>
+    <t>Put blankspace to separate words</t>
+  </si>
+  <si>
+    <t>Advance to the next field</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>A name can't have special characters!</t>
   </si>
 </sst>
 </file>
@@ -412,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,20 +742,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D4201-88FE-4E7E-83C3-83BEB9406E91}">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
     <col min="4" max="4" width="66" customWidth="1"/>
     <col min="5" max="5" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -750,7 +765,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -760,7 +775,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -777,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
@@ -811,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
@@ -828,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -845,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -862,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -879,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -896,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -913,7 +928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -928,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -945,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>5.6</v>
       </c>
@@ -962,7 +977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -979,7 +994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1013,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1030,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>59</v>
@@ -1045,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>62</v>
@@ -1060,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>65</v>
@@ -1075,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -1090,7 +1105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>71</v>
@@ -1105,7 +1120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>74</v>
@@ -1120,22 +1135,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>78</v>
@@ -1175,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>81</v>
@@ -1190,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>-5</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>94</v>
@@ -1222,7 +1237,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>90</v>
       </c>
@@ -1239,7 +1254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
@@ -1256,7 +1271,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>99</v>
       </c>
@@ -1270,6 +1285,48 @@
         <v>101</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
